--- a/Decison matrix _normalization.xlsx
+++ b/Decison matrix _normalization.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heshifan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E1DBBE-731C-2045-8026-D5C09542BE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="17040" activeTab="4" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expert_1" sheetId="2" r:id="rId1"/>
-    <sheet name="Expert_2" sheetId="3" r:id="rId2"/>
-    <sheet name="Expert_3" sheetId="4" r:id="rId3"/>
-    <sheet name="Expert_4" sheetId="5" r:id="rId4"/>
-    <sheet name="Expert_5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Expert_1" r:id="rId4" sheetId="2"/>
+    <sheet name="Expert_2" r:id="rId6" sheetId="3"/>
+    <sheet name="Expert_3" r:id="rId7" sheetId="4"/>
+    <sheet name="Expert_4" r:id="rId8" sheetId="5"/>
+    <sheet name="Expert_5" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Alternative_1</t>
   </si>
@@ -110,19 +111,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -150,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -166,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,413 +455,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3780F507-8A41-DB43-A6DD-C107FD3B1831}">
-  <dimension ref="A1:U6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0.38317757009345793</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0.60169491525423724</v>
-      </c>
-      <c r="F2">
-        <v>0.83076923076923082</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.56521739130434778</v>
-      </c>
-      <c r="K2">
-        <v>0.3828125</v>
-      </c>
-      <c r="L2">
-        <v>0.70329670329670335</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.61176470588235299</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>0.84146341463414631</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.359375</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.83076923076923082</v>
-      </c>
-      <c r="G3">
-        <v>0.87628865979381443</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0.86554621848739499</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.40659340659340659</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0.7483443708609272</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="Q3">
-        <v>0.18823529411764706</v>
-      </c>
-      <c r="R3">
-        <v>0.31617647058823528</v>
-      </c>
-      <c r="S3">
-        <v>0.67080745341614911</v>
-      </c>
-      <c r="T3">
-        <v>0.24277456647398843</v>
-      </c>
-      <c r="U3">
-        <v>0.92481203007518797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>0.25609756097560976</v>
-      </c>
-      <c r="C4">
-        <v>0.28037383177570091</v>
-      </c>
-      <c r="D4">
-        <v>0.4375</v>
-      </c>
-      <c r="E4">
-        <v>0.80508474576271183</v>
-      </c>
-      <c r="F4">
-        <v>1.5384615384615385E-2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="I4">
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="J4">
-        <v>0.27536231884057971</v>
-      </c>
-      <c r="K4">
-        <v>0.359375</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0.22068965517241379</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0.7279411764705882</v>
-      </c>
-      <c r="P4">
-        <v>0.40625</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>0.15441176470588236</v>
-      </c>
-      <c r="S4">
-        <v>0.78260869565217395</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>0.84756097560975607</v>
-      </c>
-      <c r="C5">
-        <v>0.45794392523364486</v>
-      </c>
-      <c r="D5">
-        <v>0.3125</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.0618556701030927E-2</v>
-      </c>
-      <c r="H5">
-        <v>0.21568627450980393</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.27472527472527475</v>
-      </c>
-      <c r="M5">
-        <v>0.98620689655172411</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.27941176470588236</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0.2360248447204969</v>
-      </c>
-      <c r="T5">
-        <v>0.41040462427745666</v>
-      </c>
-      <c r="U5">
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.32203389830508472</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.81443298969072164</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.91596638655462181</v>
-      </c>
-      <c r="J6">
-        <v>0.89855072463768115</v>
-      </c>
-      <c r="K6">
-        <v>0.2734375</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="N6">
-        <v>0.25827814569536423</v>
-      </c>
-      <c r="O6">
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="P6">
-        <v>0.59375</v>
-      </c>
-      <c r="Q6">
-        <v>0.4</v>
-      </c>
-      <c r="R6">
-        <v>0.92647058823529416</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>0.40462427745664742</v>
-      </c>
-      <c r="U6">
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BB9ECF-3935-8348-92C4-6803132C765A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -936,64 +541,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="D2">
-        <v>0.39200000000000002</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="G2">
-        <v>0.10077519379844961</v>
+        <v>1.0</v>
       </c>
       <c r="H2">
-        <v>0.61170212765957444</v>
+        <v>0.0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J2">
-        <v>0.16546762589928057</v>
+        <v>1.0</v>
       </c>
       <c r="K2">
-        <v>0.47953216374269003</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L2">
-        <v>0.12222222222222222</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="N2">
-        <v>0.77777777777777779</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="Q2">
-        <v>0.46</v>
+        <v>0.0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S2">
-        <v>8.6206896551724144E-2</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="T2">
-        <v>0.66923076923076918</v>
+        <v>1.0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1001,64 +606,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.65765765765765771</v>
+        <v>0.125</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E3">
-        <v>0.32738095238095238</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L3">
-        <v>0.77222222222222225</v>
+        <v>1.0</v>
       </c>
       <c r="M3">
-        <v>0.77215189873417722</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O3">
-        <v>0.4375</v>
+        <v>0.3</v>
       </c>
       <c r="P3">
-        <v>0.97109826589595372</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="Q3">
-        <v>0.96666666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="T3">
-        <v>5.3846153846153849E-2</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="U3">
-        <v>0.82417582417582413</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1066,64 +671,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.80180180180180183</v>
+        <v>0.1875</v>
       </c>
       <c r="C4">
-        <v>0.71938775510204078</v>
+        <v>0.0</v>
       </c>
       <c r="D4">
-        <v>0.89600000000000002</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>0.84615384615384615</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="G4">
-        <v>2.3255813953488372E-2</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="H4">
-        <v>2.6595744680851064E-2</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="I4">
-        <v>0.18285714285714286</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="J4">
-        <v>0.15107913669064749</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="K4">
-        <v>0.1111111111111111</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L4">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="M4">
+        <v>1.0</v>
+      </c>
+      <c r="N4">
+        <v>1.0</v>
+      </c>
+      <c r="O4">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="P4">
+        <v>0.9428571428571428</v>
+      </c>
+      <c r="Q4">
         <v>0.5</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0.25</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1131,64 +736,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="C5">
-        <v>7.6530612244897961E-2</v>
+        <v>1.0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E5">
-        <v>0.23214285714285715</v>
+        <v>1.0</v>
       </c>
       <c r="F5">
-        <v>0.39160839160839161</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="G5">
-        <v>0.37209302325581395</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="I5">
-        <v>0.22285714285714286</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="J5">
-        <v>0.91366906474820142</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M5">
-        <v>5.0632911392405063E-2</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="N5">
-        <v>0.33333333333333331</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P5">
-        <v>0.16763005780346821</v>
+        <v>0.0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R5">
-        <v>0.83783783783783783</v>
+        <v>1.0</v>
       </c>
       <c r="S5">
-        <v>0.82758620689655171</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="U5">
-        <v>0.74725274725274726</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1196,79 +801,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>8.1081081081081086E-2</v>
+        <v>0.0</v>
       </c>
       <c r="C6">
-        <v>0.12755102040816327</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D6">
-        <v>0.77600000000000002</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E6">
-        <v>2.976190476190476E-2</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="F6">
-        <v>0.72027972027972031</v>
+        <v>1.0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="H6">
-        <v>0.6542553191489362</v>
+        <v>1.0</v>
       </c>
       <c r="I6">
-        <v>0.7371428571428571</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="K6">
-        <v>0.49707602339181284</v>
+        <v>1.0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="M6">
-        <v>0.22784810126582278</v>
+        <v>0.8</v>
       </c>
       <c r="N6">
-        <v>0.30555555555555558</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O6">
-        <v>0.703125</v>
+        <v>1.0</v>
       </c>
       <c r="P6">
-        <v>0.95953757225433522</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="Q6">
-        <v>0.88</v>
+        <v>1.0</v>
       </c>
       <c r="R6">
-        <v>0.93243243243243246</v>
+        <v>1.0</v>
       </c>
       <c r="S6">
-        <v>0.46551724137931033</v>
+        <v>0.0</v>
       </c>
       <c r="T6">
-        <v>0.68461538461538463</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="U6">
-        <v>0.68131868131868134</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C342446-2CC3-6247-9952-D89115FEEB73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -1337,64 +941,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="E2">
-        <v>0.51572327044025157</v>
+        <v>1.0</v>
       </c>
       <c r="F2">
-        <v>0.96226415094339623</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G2">
-        <v>0.91463414634146345</v>
+        <v>0.59375</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I2">
-        <v>0.22651933701657459</v>
+        <v>0.25</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="M2">
-        <v>0.6387096774193548</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="N2">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="O2">
-        <v>0.88652482269503541</v>
+        <v>0.3</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="Q2">
-        <v>0.47794117647058826</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="R2">
-        <v>0.99315068493150682</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="S2">
-        <v>0.71584699453551914</v>
+        <v>1.0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1402,64 +1006,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.50299401197604787</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D3">
-        <v>0.59217877094972071</v>
+        <v>0.96</v>
       </c>
       <c r="E3">
-        <v>0.60377358490566035</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="F3">
-        <v>0.38364779874213839</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G3">
-        <v>0.60365853658536583</v>
+        <v>1.0</v>
       </c>
       <c r="H3">
-        <v>0.96799999999999997</v>
+        <v>1.0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K3">
-        <v>0.35849056603773582</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L3">
-        <v>0.42753623188405798</v>
+        <v>0.0</v>
       </c>
       <c r="M3">
-        <v>0.56774193548387097</v>
+        <v>1.0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="O3">
-        <v>0.36879432624113473</v>
+        <v>0.0</v>
       </c>
       <c r="P3">
-        <v>0.55882352941176472</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>0.71917808219178081</v>
+        <v>0.0</v>
       </c>
       <c r="S3">
-        <v>0.74316939890710387</v>
+        <v>0.48148148148148145</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1467,64 +1071,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.10179640718562874</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C4">
-        <v>0.84868421052631582</v>
+        <v>1.0</v>
       </c>
       <c r="D4">
-        <v>0.16759776536312848</v>
+        <v>0.0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G4">
-        <v>0.18292682926829268</v>
+        <v>0.90625</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J4">
-        <v>0.1728395061728395</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="K4">
-        <v>8.8050314465408799E-2</v>
+        <v>1.0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="M4">
-        <v>0.50322580645161286</v>
+        <v>0.0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="P4">
-        <v>0.15441176470588236</v>
+        <v>1.0</v>
       </c>
       <c r="Q4">
-        <v>0.90441176470588236</v>
+        <v>0.0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="S4">
-        <v>0.37704918032786883</v>
+        <v>0.0</v>
       </c>
       <c r="T4">
-        <v>0.93617021276595747</v>
+        <v>1.0</v>
       </c>
       <c r="U4">
-        <v>0.19791666666666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1532,64 +1136,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.99401197604790414</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C5">
-        <v>0.82236842105263153</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D5">
-        <v>0.16759776536312848</v>
+        <v>1.0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="H5">
-        <v>0.20799999999999999</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I5">
-        <v>8.2872928176795577E-2</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="J5">
-        <v>0.18518518518518517</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="K5">
-        <v>0.33333333333333331</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L5">
-        <v>9.420289855072464E-2</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.52352941176470591</v>
+        <v>1.0</v>
       </c>
       <c r="O5">
-        <v>0.82978723404255317</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="P5">
-        <v>0.47058823529411764</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="T5">
-        <v>0.87234042553191493</v>
+        <v>0.1875</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1597,79 +1201,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="C6">
-        <v>0.98684210526315785</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="E6">
-        <v>0.88050314465408808</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="F6">
-        <v>0.67295597484276726</v>
+        <v>0.0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H6">
-        <v>0.42399999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="I6">
-        <v>0.53038674033149169</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J6">
-        <v>0.59876543209876543</v>
+        <v>0.0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L6">
-        <v>0.61594202898550721</v>
+        <v>1.0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="N6">
-        <v>0.8529411764705882</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="Q6">
-        <v>5.1470588235294115E-2</v>
+        <v>1.0</v>
       </c>
       <c r="R6">
-        <v>0.97945205479452058</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="T6">
-        <v>0.5957446808510638</v>
+        <v>0.59375</v>
       </c>
       <c r="U6">
-        <v>7.2916666666666671E-2</v>
+        <v>0.3125</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8D3CC0-DD6F-3246-BCEE-0EF08833E984}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -1738,64 +1341,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
-        <v>0.23469387755102042</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="D2">
-        <v>0.5636363636363636</v>
+        <v>0.782608695652174</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G2">
-        <v>0.37654320987654322</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="H2">
-        <v>6.6225165562913912E-2</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="J2">
-        <v>2.2988505747126436E-2</v>
+        <v>0.6</v>
       </c>
       <c r="K2">
-        <v>9.696969696969697E-2</v>
+        <v>0.23684210526315788</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M2">
-        <v>0.33333333333333331</v>
+        <v>0.96875</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O2">
-        <v>0.18471337579617833</v>
+        <v>0.0</v>
       </c>
       <c r="P2">
-        <v>0.66371681415929207</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="Q2">
-        <v>0.97241379310344822</v>
+        <v>0.0</v>
       </c>
       <c r="R2">
-        <v>0.77952755905511806</v>
+        <v>1.0</v>
       </c>
       <c r="S2">
-        <v>0.37362637362637363</v>
+        <v>1.0</v>
       </c>
       <c r="T2">
-        <v>0.51351351351351349</v>
+        <v>0.0</v>
       </c>
       <c r="U2">
-        <v>0.29906542056074764</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1803,64 +1406,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.60256410256410253</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="C3">
-        <v>0.39795918367346939</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="E3">
-        <v>0.70512820512820518</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F3">
-        <v>0.11702127659574468</v>
+        <v>0.75</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I3">
-        <v>0.33333333333333331</v>
+        <v>0.12</v>
       </c>
       <c r="J3">
-        <v>0.7931034482758621</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
-        <v>0.4</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="L3">
-        <v>0.17391304347826086</v>
+        <v>0.32</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.15625</v>
       </c>
       <c r="N3">
-        <v>0.78861788617886175</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="O3">
-        <v>0.46496815286624205</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="R3">
-        <v>0.82677165354330706</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="S3">
-        <v>0.73626373626373631</v>
+        <v>0.09375</v>
       </c>
       <c r="T3">
-        <v>0.61261261261261257</v>
+        <v>1.0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1868,64 +1471,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.44871794871794873</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D4">
-        <v>0.80909090909090908</v>
+        <v>0.0</v>
       </c>
       <c r="E4">
-        <v>0.30769230769230771</v>
+        <v>1.0</v>
       </c>
       <c r="F4">
-        <v>0.37234042553191488</v>
+        <v>0.0625</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H4">
-        <v>2.6490066225165563E-2</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="I4">
-        <v>8.0808080808080815E-2</v>
+        <v>0.52</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N4">
-        <v>0.25203252032520324</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="P4">
-        <v>0.52212389380530977</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="Q4">
-        <v>0.43448275862068964</v>
+        <v>0.4375</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1933,64 +1536,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.32051282051282054</v>
+        <v>1.0</v>
       </c>
       <c r="C5">
-        <v>0.8571428571428571</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="D5">
-        <v>0.22727272727272727</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="E5">
-        <v>0.47435897435897434</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G5">
-        <v>0.21604938271604937</v>
+        <v>0.0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="I5">
-        <v>0.74747474747474751</v>
+        <v>0.44</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="K5">
-        <v>0.83636363636363631</v>
+        <v>1.0</v>
       </c>
       <c r="L5">
-        <v>0.88695652173913042</v>
+        <v>0.36</v>
       </c>
       <c r="M5">
-        <v>0.72839506172839508</v>
+        <v>1.0</v>
       </c>
       <c r="N5">
-        <v>0.21951219512195122</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q5">
-        <v>0.81379310344827582</v>
+        <v>0.6875</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="S5">
-        <v>0.4175824175824176</v>
+        <v>0.625</v>
       </c>
       <c r="T5">
-        <v>0.5855855855855856</v>
+        <v>1.0</v>
       </c>
       <c r="U5">
-        <v>0.95327102803738317</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1998,79 +1601,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="G6">
-        <v>0.54320987654320985</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="H6">
-        <v>0.9668874172185431</v>
+        <v>0.0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="J6">
-        <v>0.56321839080459768</v>
+        <v>0.7</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L6">
-        <v>0.86086956521739133</v>
+        <v>0.68</v>
       </c>
       <c r="M6">
-        <v>0.90123456790123457</v>
+        <v>0.21875</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O6">
-        <v>0.51592356687898089</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="P6">
-        <v>0.5752212389380531</v>
+        <v>1.0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="R6">
-        <v>7.874015748031496E-3</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.047619047619047616</v>
       </c>
       <c r="U6">
-        <v>0.29906542056074764</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133FD6A7-6193-884D-B49D-6C2B19C22217}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -2139,64 +1741,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.63043478260869568</v>
+        <v>1.0</v>
       </c>
       <c r="C2">
-        <v>1.6393442622950821E-2</v>
+        <v>1.0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="G2">
-        <v>0.3146067415730337</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="H2">
-        <v>0.88888888888888884</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="I2">
-        <v>0.152</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L2">
-        <v>0.54140127388535031</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="N2">
-        <v>0.14814814814814814</v>
+        <v>1.0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="P2">
-        <v>0.49197860962566847</v>
+        <v>0.0</v>
       </c>
       <c r="Q2">
-        <v>0.98113207547169812</v>
+        <v>1.0</v>
       </c>
       <c r="R2">
-        <v>0.79084967320261434</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="T2">
-        <v>0.62576687116564422</v>
+        <v>0.12</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2204,64 +1806,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.76630434782608692</v>
+        <v>0.0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>0.72992700729927007</v>
+        <v>1.0</v>
       </c>
       <c r="E3">
-        <v>3.5714285714285712E-2</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F3">
-        <v>0.65921787709497204</v>
+        <v>1.0</v>
       </c>
       <c r="G3">
-        <v>0.8033707865168539</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I3">
-        <v>4.8000000000000001E-2</v>
+        <v>1.0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K3">
-        <v>0.86390532544378695</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="L3">
-        <v>0.92993630573248409</v>
+        <v>1.0</v>
       </c>
       <c r="M3">
-        <v>0.44761904761904764</v>
+        <v>1.0</v>
       </c>
       <c r="N3">
-        <v>0.70370370370370372</v>
+        <v>1.0</v>
       </c>
       <c r="O3">
-        <v>0.50344827586206897</v>
+        <v>1.0</v>
       </c>
       <c r="P3">
-        <v>2.6737967914438502E-2</v>
+        <v>0.875</v>
       </c>
       <c r="Q3">
-        <v>2.8301886792452831E-2</v>
+        <v>0.0</v>
       </c>
       <c r="R3">
-        <v>0.37908496732026142</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2269,64 +1871,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.28</v>
       </c>
       <c r="D4">
-        <v>0.17518248175182483</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>6.7039106145251395E-2</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="I4">
-        <v>0.72799999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="J4">
-        <v>7.6923076923076927E-2</v>
+        <v>1.0</v>
       </c>
       <c r="K4">
-        <v>0.65680473372781067</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="M4">
-        <v>0.20952380952380953</v>
+        <v>0.0</v>
       </c>
       <c r="N4">
-        <v>3.7037037037037035E-2</v>
+        <v>0.0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R4">
-        <v>0.41176470588235292</v>
+        <v>1.0</v>
       </c>
       <c r="S4">
-        <v>0.58783783783783783</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="T4">
-        <v>0.1165644171779141</v>
+        <v>0.36</v>
       </c>
       <c r="U4">
-        <v>0.93367346938775508</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2334,64 +1936,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>0.24590163934426229</v>
+        <v>0.16</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E5">
-        <v>0.7321428571428571</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="F5">
-        <v>0.12290502793296089</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="G5">
-        <v>0.3258426966292135</v>
+        <v>1.0</v>
       </c>
       <c r="H5">
-        <v>0.37962962962962965</v>
+        <v>0.0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="J5">
-        <v>0.4175824175824176</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="K5">
-        <v>3.5502958579881658E-2</v>
+        <v>1.0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="M5">
-        <v>0.61904761904761907</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="O5">
-        <v>0.69655172413793098</v>
+        <v>0.08</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
-        <v>0.25471698113207547</v>
+        <v>0.2</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="S5">
-        <v>0.84459459459459463</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="U5">
-        <v>0.69387755102040816</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2399,68 +2001,467 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.38043478260869568</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C6">
-        <v>0.51639344262295084</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>0.66423357664233573</v>
+        <v>0.0</v>
       </c>
       <c r="E6">
-        <v>0.10119047619047619</v>
+        <v>1.0</v>
       </c>
       <c r="F6">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I6">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J6">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="K6">
+        <v>0.0</v>
+      </c>
+      <c r="L6">
+        <v>0.9428571428571428</v>
+      </c>
+      <c r="M6">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="N6">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="O6">
+        <v>0.2</v>
+      </c>
+      <c r="P6">
+        <v>0.875</v>
+      </c>
+      <c r="Q6">
+        <v>0.7</v>
+      </c>
+      <c r="R6">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="S6">
+        <v>0.0</v>
+      </c>
+      <c r="T6">
+        <v>0.12</v>
+      </c>
+      <c r="U6">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.0625</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>1.0</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="H2">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="I2">
+        <v>1.0</v>
+      </c>
+      <c r="J2">
+        <v>1.0</v>
+      </c>
+      <c r="K2">
+        <v>1.0</v>
+      </c>
+      <c r="L2">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="M2">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="N2">
+        <v>0.0</v>
+      </c>
+      <c r="O2">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="P2">
+        <v>0.0</v>
+      </c>
+      <c r="Q2">
+        <v>0.8125</v>
+      </c>
+      <c r="R2">
+        <v>0.0</v>
+      </c>
+      <c r="S2">
+        <v>0.0</v>
+      </c>
+      <c r="T2">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="U2">
+        <v>0.5925925925925926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0.6875</v>
+      </c>
+      <c r="C3">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="D3">
+        <v>0.0</v>
+      </c>
+      <c r="E3">
+        <v>1.0</v>
+      </c>
+      <c r="F3">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="G3">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="H3">
+        <v>0.0</v>
+      </c>
+      <c r="I3">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="J3">
+        <v>0.0</v>
+      </c>
+      <c r="K3">
+        <v>0.9259259259259259</v>
+      </c>
+      <c r="L3">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="M3">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="N3">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O3">
+        <v>1.0</v>
+      </c>
+      <c r="P3">
+        <v>1.0</v>
+      </c>
+      <c r="Q3">
+        <v>0.0</v>
+      </c>
+      <c r="R3">
+        <v>0.35</v>
+      </c>
+      <c r="S3">
+        <v>0.25</v>
+      </c>
+      <c r="T3">
+        <v>0.0</v>
+      </c>
+      <c r="U3">
+        <v>0.2962962962962963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.0</v>
+      </c>
+      <c r="C4">
+        <v>1.0</v>
+      </c>
+      <c r="D4">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="G4">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="H4">
+        <v>1.0</v>
+      </c>
+      <c r="I4">
+        <v>0.8285714285714286</v>
+      </c>
+      <c r="J4">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="K4">
+        <v>0.0</v>
+      </c>
+      <c r="L4">
+        <v>1.0</v>
+      </c>
+      <c r="M4">
+        <v>1.0</v>
+      </c>
+      <c r="N4">
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="O4">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="P4">
+        <v>0.52</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>0.45</v>
+      </c>
+      <c r="S4">
+        <v>0.75</v>
+      </c>
+      <c r="T4">
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="U4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.75</v>
+      </c>
+      <c r="C5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D5">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="E5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F5">
+        <v>1.0</v>
+      </c>
+      <c r="G5">
+        <v>1.0</v>
+      </c>
+      <c r="H5">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="I5">
+        <v>0.0</v>
+      </c>
+      <c r="J5">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="K5">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L5">
+        <v>0.0</v>
+      </c>
+      <c r="M5">
+        <v>0.0</v>
+      </c>
+      <c r="N5">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="O5">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="P5">
+        <v>0.8</v>
+      </c>
+      <c r="Q5">
+        <v>1.0</v>
+      </c>
+      <c r="R5">
+        <v>0.25</v>
+      </c>
+      <c r="S5">
+        <v>0.09375</v>
+      </c>
+      <c r="T5">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="U5">
+        <v>0.5925925925925926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>1.0</v>
+      </c>
+      <c r="C6">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="F6">
+        <v>0.8076923076923077</v>
+      </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H6">
-        <v>0.96296296296296291</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="J6">
-        <v>0.21978021978021978</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L6">
-        <v>0.84713375796178347</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O6">
-        <v>6.8965517241379309E-3</v>
+        <v>0.0</v>
       </c>
       <c r="P6">
-        <v>9.0909090909090912E-2</v>
+        <v>0.68</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0.40625</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="S6">
-        <v>0.29054054054054052</v>
+        <v>1.0</v>
       </c>
       <c r="T6">
-        <v>0.38650306748466257</v>
+        <v>1.0</v>
       </c>
       <c r="U6">
-        <v>0.83163265306122447</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>